--- a/biology/Médecine/François_Achille_Longet/François_Achille_Longet.xlsx
+++ b/biology/Médecine/François_Achille_Longet/François_Achille_Longet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Achille_Longet</t>
+          <t>François_Achille_Longet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Achille Longet, né le 25 mai 1811 à Saint-Germain-en-Laye et mort le 20 avril 1871 à Bordeaux, est un anatomiste et physiologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Achille_Longet</t>
+          <t>François_Achille_Longet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Achille Longet était un l'élève de François Magendie[1]. Il fut un pionnier dans le domaine de la physiologie expérimentale[2].
-En 1853, il obtint la chaire de physiologie de la faculté de médecine de Paris, en remplacement de Bérard[2]. Un de ses meilleurs élèves a été le physiologiste allemand Moritz Schiff[3].
-François Achille Longet est connu pour ses recherches approfondies sur le système nerveux autonome et ses expériences physiologiques de la colonne postérieure et antérieure de la moelle épinière et le moteur comportant des fonctionnalités sensorielles. Il a également fourni une description détaillée complète du nerf de l'innervation du larynx. Avec Jean Pierre Flourens (1794-1867), il a effectué des expériences concernant les effets de l'éther et le chloroforme sur le système nerveux central des animaux de laboratoire[4].
-En 1843, avec Jacques Joseph Moreau, Jules Baillarger et Laurent Cerise, il fonde la revue Annales médico-psychologiques, concernant la psychiatrie et qui est toujours publié[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Achille Longet était un l'élève de François Magendie. Il fut un pionnier dans le domaine de la physiologie expérimentale.
+En 1853, il obtint la chaire de physiologie de la faculté de médecine de Paris, en remplacement de Bérard. Un de ses meilleurs élèves a été le physiologiste allemand Moritz Schiff.
+François Achille Longet est connu pour ses recherches approfondies sur le système nerveux autonome et ses expériences physiologiques de la colonne postérieure et antérieure de la moelle épinière et le moteur comportant des fonctionnalités sensorielles. Il a également fourni une description détaillée complète du nerf de l'innervation du larynx. Avec Jean Pierre Flourens (1794-1867), il a effectué des expériences concernant les effets de l'éther et le chloroforme sur le système nerveux central des animaux de laboratoire.
+En 1843, avec Jacques Joseph Moreau, Jules Baillarger et Laurent Cerise, il fonde la revue Annales médico-psychologiques, concernant la psychiatrie et qui est toujours publié.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Achille_Longet</t>
+          <t>François_Achille_Longet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques considérations sur les exhalations sanguines des méninges, Thèse de médecine présentée et soutenue le 17 avril 1835, Didot le jeune, Paris, 1835, Texte intégral.
 Recherches expérimentales sur les fonctions des nerfs, des muscles du larynx et sur l'influence du nerf accessoire de Willis dans la phonation, Paris, Béchet et Labé, 1841, 36 p., Texte intégral sur Google Livres
